--- a/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>productname</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,185 +762,193 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>8</v>
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B28" s="10">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -203,9 +203,6 @@
     <t>verifyloanproduct</t>
   </si>
   <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -288,15 +287,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,13 +630,15 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7">
+        <v>919</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>42005</v>
       </c>
     </row>
@@ -645,7 +646,7 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -653,8 +654,8 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
+      <c r="B6" s="13">
+        <v>2</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -662,15 +663,15 @@
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="10">
-        <v>2</v>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>0</v>
       </c>
     </row>
@@ -678,7 +679,7 @@
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -686,7 +687,7 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>12</v>
       </c>
     </row>
@@ -694,7 +695,7 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -702,7 +703,7 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -710,7 +711,7 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -718,7 +719,7 @@
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2"/>
@@ -727,15 +728,15 @@
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>63</v>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -743,15 +744,15 @@
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -759,7 +760,7 @@
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -767,7 +768,7 @@
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -775,7 +776,7 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -783,15 +784,15 @@
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>65</v>
+      <c r="B22" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -799,7 +800,7 @@
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -807,7 +808,7 @@
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -815,15 +816,15 @@
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="13">
+        <v>65</v>
+      </c>
+      <c r="B27" s="10">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +832,7 @@
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>10000</v>
       </c>
     </row>
@@ -839,7 +840,7 @@
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -847,7 +848,7 @@
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -855,7 +856,7 @@
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -863,7 +864,7 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -871,7 +872,7 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -879,7 +880,7 @@
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -887,7 +888,7 @@
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -895,7 +896,7 @@
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -903,7 +904,7 @@
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -911,7 +912,7 @@
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -919,7 +920,7 @@
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -927,7 +928,7 @@
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -935,7 +936,7 @@
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/919-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -206,9 +206,6 @@
     <t>Equal principal payments</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Calculate till rest frequency date</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +296,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +602,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +665,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -744,8 +745,8 @@
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
+      <c r="B17" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +786,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +823,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
